--- a/Plan-QuanLyVeMayBay.xlsx
+++ b/Plan-QuanLyVeMayBay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8205" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19530" windowHeight="8220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan and Gantt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>Tasks</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Launch</t>
   </si>
   <si>
-    <t>Not started</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
   </si>
   <si>
     <t>Function 2,…</t>
-  </si>
-  <si>
-    <t>In-progress</t>
   </si>
   <si>
     <t>1. Make the plan of the project. 
@@ -196,15 +190,6 @@
     <t>1. Design GUI/database.
 2. Code.
 3. Test</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Nguyễn Bá Anh Minh</t>
-  </si>
-  <si>
-    <t>Mai Thanh Phước</t>
   </si>
   <si>
     <t>Phạm Minh Tú</t>
@@ -230,7 +215,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,13 +263,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -317,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -332,17 +310,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -395,32 +362,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,39 +398,39 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1437,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1451,32 +1412,32 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1487,27 +1448,27 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="13">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11">
         <v>42601</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="13">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11">
         <v>42298</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12">
         <v>0.1</v>
       </c>
       <c r="C9" s="1"/>
@@ -1518,22 +1479,22 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1542,12 +1503,12 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6">
         <v>42601</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>42601</v>
       </c>
       <c r="E12" s="3">
@@ -1555,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
@@ -1563,12 +1524,12 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="7">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6">
         <v>42601</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>42601</v>
       </c>
       <c r="E13" s="3">
@@ -1576,20 +1537,20 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="7">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6">
         <v>42601</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>42603</v>
       </c>
       <c r="E14" s="3">
@@ -1597,277 +1558,281 @@
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6">
         <v>42603</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>42605</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>18</v>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="7">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6">
         <v>42605</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>42610</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>47</v>
+      <c r="A17" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="7">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6">
         <v>42610</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>42615</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>18</v>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>48</v>
+      <c r="A18" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="7">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6">
         <v>42615</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>42620</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>18</v>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6">
         <v>42620</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>42627</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>18</v>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
+      <c r="A20" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="7">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6">
         <v>42627</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>42635</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>18</v>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>50</v>
+      <c r="A21" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="7">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6">
         <v>42635</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>42643</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>18</v>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="7">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6">
         <v>42643</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>42649</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ref="E22:E24" si="1">D22-C22</f>
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="7">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6">
         <v>42649</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>42653</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>18</v>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6">
         <v>42653</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>42658</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
+      <c r="F24" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="7">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6">
         <v>42658</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>42662</v>
       </c>
       <c r="E25" s="3">
         <f>D25-C25</f>
         <v>4</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>18</v>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="7">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6">
         <v>42662</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>42663</v>
       </c>
       <c r="E26" s="3">
         <f>D26-C26</f>
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>18</v>
+      <c r="F26" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="27">
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="25">
         <v>42663</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <v>42664</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>D27-C27</f>
         <v>1</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="29.1" customHeight="1"/>
   </sheetData>
@@ -1887,7 +1852,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A4:D6"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1899,98 +1864,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="78.75">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="28" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>60</v>
+      <c r="B5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="A6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5:D6" r:id="rId2" display="phamminhtu_it@yahoo.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2018,117 +1988,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2160,140 +2130,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
